--- a/data_craw/quarter/balance_sheet_quarter/ctg.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/ctg.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,51 +573,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9126688000000</v>
+        <v>8128568000000</v>
       </c>
       <c r="C4" t="n">
-        <v>8282726000000</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>9930181000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8512099000000</v>
+      </c>
       <c r="E4" t="n">
-        <v>8172306000000</v>
+        <v>8952203000000</v>
       </c>
       <c r="F4" t="n">
-        <v>8128568000000</v>
+        <v>9843822000000</v>
       </c>
       <c r="G4" t="n">
-        <v>9930181000000</v>
+        <v>11330659000000</v>
       </c>
       <c r="H4" t="n">
-        <v>8512099000000</v>
+        <v>9731856000000</v>
       </c>
       <c r="I4" t="n">
-        <v>8952203000000</v>
+        <v>9828518000000</v>
       </c>
       <c r="J4" t="n">
-        <v>9843822000000</v>
+        <v>10642176000000</v>
       </c>
       <c r="K4" t="n">
-        <v>11330659000000</v>
+        <v>13745227000000</v>
       </c>
       <c r="L4" t="n">
-        <v>9731856000000</v>
+        <v>10509894000000</v>
       </c>
       <c r="M4" t="n">
-        <v>9828518000000</v>
+        <v>10173535000000</v>
       </c>
       <c r="N4" t="n">
-        <v>10642176000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13745227000000</v>
-      </c>
+        <v>9468579000000</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>10509894000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>10173535000000</v>
-      </c>
+        <v>9408384000000</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -672,53 +670,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23706522000000</v>
+        <v>17214434000000</v>
       </c>
       <c r="C7" t="n">
-        <v>24873714000000</v>
+        <v>57616650000000</v>
       </c>
       <c r="D7" t="n">
-        <v>25157456000000</v>
+        <v>10213007000000</v>
       </c>
       <c r="E7" t="n">
-        <v>12877566000000</v>
+        <v>37858344000000</v>
       </c>
       <c r="F7" t="n">
-        <v>17214434000000</v>
+        <v>27798897000000</v>
       </c>
       <c r="G7" t="n">
-        <v>57616650000000</v>
+        <v>23383443000000</v>
       </c>
       <c r="H7" t="n">
-        <v>10213007000000</v>
+        <v>19945813000000</v>
       </c>
       <c r="I7" t="n">
-        <v>37858344000000</v>
+        <v>25161218000000</v>
       </c>
       <c r="J7" t="n">
-        <v>27798897000000</v>
+        <v>14378541000000</v>
       </c>
       <c r="K7" t="n">
-        <v>23383443000000</v>
+        <v>111418448000000</v>
       </c>
       <c r="L7" t="n">
-        <v>19945813000000</v>
+        <v>22479729000000</v>
       </c>
       <c r="M7" t="n">
-        <v>25161218000000</v>
+        <v>23584485000000</v>
       </c>
       <c r="N7" t="n">
-        <v>14378541000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>111418448000000</v>
-      </c>
+        <v>34735212000000</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>22479729000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>23584485000000</v>
-      </c>
+        <v>17340570000000</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -796,53 +790,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>124579397000000</v>
+        <v>128657592000000</v>
       </c>
       <c r="C11" t="n">
-        <v>129315202000000</v>
+        <v>102532918000000</v>
       </c>
       <c r="D11" t="n">
-        <v>126351102000000</v>
+        <v>139620432000000</v>
       </c>
       <c r="E11" t="n">
-        <v>130011162000000</v>
+        <v>152895821000000</v>
       </c>
       <c r="F11" t="n">
-        <v>128657592000000</v>
+        <v>112616156000000</v>
       </c>
       <c r="G11" t="n">
-        <v>102532918000000</v>
+        <v>149265358000000</v>
       </c>
       <c r="H11" t="n">
-        <v>139620432000000</v>
+        <v>177089244000000</v>
       </c>
       <c r="I11" t="n">
-        <v>152895821000000</v>
+        <v>188405480000000</v>
       </c>
       <c r="J11" t="n">
-        <v>112616156000000</v>
+        <v>238664064000000</v>
       </c>
       <c r="K11" t="n">
-        <v>149265358000000</v>
+        <v>221146701000000</v>
       </c>
       <c r="L11" t="n">
-        <v>177089244000000</v>
+        <v>207791425000000</v>
       </c>
       <c r="M11" t="n">
-        <v>188405480000000</v>
+        <v>230782730000000</v>
       </c>
       <c r="N11" t="n">
-        <v>238664064000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>221146701000000</v>
-      </c>
+        <v>254955175000000</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>207791425000000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>230782730000000</v>
-      </c>
+        <v>332707091000000</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -851,53 +841,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120226343000000</v>
+        <v>121873964000000</v>
       </c>
       <c r="C12" t="n">
-        <v>123011442000000</v>
+        <v>92628345000000</v>
       </c>
       <c r="D12" t="n">
-        <v>121607273000000</v>
+        <v>130669839000000</v>
       </c>
       <c r="E12" t="n">
-        <v>126128195000000</v>
+        <v>13983105000000</v>
       </c>
       <c r="F12" t="n">
-        <v>121873964000000</v>
+        <v>94736184000000</v>
       </c>
       <c r="G12" t="n">
-        <v>92628345000000</v>
+        <v>129748076000000</v>
       </c>
       <c r="H12" t="n">
-        <v>130669839000000</v>
+        <v>153981574000000</v>
       </c>
       <c r="I12" t="n">
-        <v>13983105000000</v>
+        <v>168069088000000</v>
       </c>
       <c r="J12" t="n">
-        <v>94736184000000</v>
+        <v>210978734000000</v>
       </c>
       <c r="K12" t="n">
-        <v>129748076000000</v>
+        <v>203435821000000</v>
       </c>
       <c r="L12" t="n">
-        <v>153981574000000</v>
+        <v>189864447000000</v>
       </c>
       <c r="M12" t="n">
-        <v>168069088000000</v>
+        <v>210462034000000</v>
       </c>
       <c r="N12" t="n">
-        <v>210978734000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>203435821000000</v>
-      </c>
+        <v>232232807000000</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>189864447000000</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>210462034000000</v>
-      </c>
+        <v>314264476000000</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -906,53 +892,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4353054000000</v>
+        <v>6783628000000</v>
       </c>
       <c r="C13" t="n">
-        <v>6303760000000</v>
+        <v>9904573000000</v>
       </c>
       <c r="D13" t="n">
-        <v>4743829000000</v>
+        <v>8950593000000</v>
       </c>
       <c r="E13" t="n">
-        <v>3882967000000</v>
+        <v>13064765000000</v>
       </c>
       <c r="F13" t="n">
-        <v>6783628000000</v>
+        <v>17879972000000</v>
       </c>
       <c r="G13" t="n">
-        <v>9904573000000</v>
+        <v>19517282000000</v>
       </c>
       <c r="H13" t="n">
-        <v>8950593000000</v>
+        <v>23107670000000</v>
       </c>
       <c r="I13" t="n">
-        <v>13064765000000</v>
+        <v>20336392000000</v>
       </c>
       <c r="J13" t="n">
-        <v>17879972000000</v>
+        <v>27685330000000</v>
       </c>
       <c r="K13" t="n">
-        <v>19517282000000</v>
+        <v>17795874000000</v>
       </c>
       <c r="L13" t="n">
-        <v>23107670000000</v>
+        <v>17926978000000</v>
       </c>
       <c r="M13" t="n">
-        <v>20336392000000</v>
+        <v>20320696000000</v>
       </c>
       <c r="N13" t="n">
-        <v>27685330000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>17795874000000</v>
-      </c>
+        <v>22722368000000</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>17926978000000</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>20320696000000</v>
-      </c>
+        <v>18442615000000</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1084,13 +1066,13 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-84994000000</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>-84994000000</v>
-      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
     </row>
@@ -1101,53 +1083,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6156938000000</v>
+        <v>3486087000000</v>
       </c>
       <c r="C20" t="n">
-        <v>3825374000000</v>
+        <v>5601747000000</v>
       </c>
       <c r="D20" t="n">
-        <v>1062874000000</v>
+        <v>1714943000000</v>
       </c>
       <c r="E20" t="n">
-        <v>1720065000000</v>
+        <v>3375866000000</v>
       </c>
       <c r="F20" t="n">
-        <v>3486087000000</v>
+        <v>3931998000000</v>
       </c>
       <c r="G20" t="n">
-        <v>5601747000000</v>
+        <v>2475309000000</v>
       </c>
       <c r="H20" t="n">
-        <v>1714943000000</v>
+        <v>4169069000000</v>
       </c>
       <c r="I20" t="n">
-        <v>3375866000000</v>
+        <v>1254550000000</v>
       </c>
       <c r="J20" t="n">
-        <v>3931998000000</v>
+        <v>1174872000000</v>
       </c>
       <c r="K20" t="n">
-        <v>2475309000000</v>
+        <v>1701421000000</v>
       </c>
       <c r="L20" t="n">
-        <v>4169069000000</v>
+        <v>1145892000000</v>
       </c>
       <c r="M20" t="n">
-        <v>1254550000000</v>
+        <v>1441612000000</v>
       </c>
       <c r="N20" t="n">
-        <v>1174872000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1701421000000</v>
-      </c>
+        <v>1567526000000</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>1145892000000</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1441612000000</v>
-      </c>
+        <v>1935074000000</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1156,53 +1134,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6335465000000</v>
+        <v>3729764000000</v>
       </c>
       <c r="C21" t="n">
-        <v>4051245000000</v>
+        <v>5723160000000</v>
       </c>
       <c r="D21" t="n">
-        <v>1402836000000</v>
+        <v>1794656000000</v>
       </c>
       <c r="E21" t="n">
-        <v>1939636000000</v>
+        <v>3455359000000</v>
       </c>
       <c r="F21" t="n">
-        <v>3729764000000</v>
+        <v>4084278000000</v>
       </c>
       <c r="G21" t="n">
-        <v>5723160000000</v>
+        <v>2522807000000</v>
       </c>
       <c r="H21" t="n">
-        <v>1794656000000</v>
+        <v>4256339000000</v>
       </c>
       <c r="I21" t="n">
-        <v>3455359000000</v>
+        <v>1275396000000</v>
       </c>
       <c r="J21" t="n">
-        <v>4084278000000</v>
+        <v>1330176000000</v>
       </c>
       <c r="K21" t="n">
-        <v>2522807000000</v>
+        <v>1748478000000</v>
       </c>
       <c r="L21" t="n">
-        <v>4256339000000</v>
+        <v>1369952000000</v>
       </c>
       <c r="M21" t="n">
-        <v>1275396000000</v>
+        <v>1622489000000</v>
       </c>
       <c r="N21" t="n">
-        <v>1330176000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1748478000000</v>
-      </c>
+        <v>1769594000000</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>1369952000000</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1622489000000</v>
-      </c>
+        <v>2119491000000</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1211,53 +1185,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-178527000000</v>
+        <v>-243677000000</v>
       </c>
       <c r="C22" t="n">
-        <v>-225871000000</v>
+        <v>-121413000000</v>
       </c>
       <c r="D22" t="n">
-        <v>-339962000000</v>
+        <v>-79713000000</v>
       </c>
       <c r="E22" t="n">
-        <v>-219571000000</v>
+        <v>-79493000000</v>
       </c>
       <c r="F22" t="n">
-        <v>-243677000000</v>
+        <v>-152280000000</v>
       </c>
       <c r="G22" t="n">
-        <v>-121413000000</v>
+        <v>-47498000000</v>
       </c>
       <c r="H22" t="n">
-        <v>-79713000000</v>
+        <v>-87270000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-79493000000</v>
+        <v>-20846000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-152280000000</v>
+        <v>-155304000000</v>
       </c>
       <c r="K22" t="n">
-        <v>-47498000000</v>
+        <v>-47057000000</v>
       </c>
       <c r="L22" t="n">
-        <v>-87270000000</v>
+        <v>-223060000000</v>
       </c>
       <c r="M22" t="n">
-        <v>-20846000000</v>
+        <v>-180877000000</v>
       </c>
       <c r="N22" t="n">
-        <v>-155304000000</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-47057000000</v>
-      </c>
+        <v>-202068000000</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>-223060000000</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-180877000000</v>
-      </c>
+        <v>-184417000000</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1266,49 +1236,45 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166316000000</v>
-      </c>
-      <c r="C23" t="n">
-        <v>469712000000</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>587411000000</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>2494187000000</v>
+      </c>
       <c r="E23" t="n">
-        <v>461071000000</v>
+        <v>1441177000000</v>
       </c>
       <c r="F23" t="n">
-        <v>587411000000</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>1312378000000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1454790000000</v>
+      </c>
       <c r="H23" t="n">
-        <v>2494187000000</v>
+        <v>3329136000000</v>
       </c>
       <c r="I23" t="n">
-        <v>1441177000000</v>
+        <v>7482072000000</v>
       </c>
       <c r="J23" t="n">
-        <v>1312378000000</v>
+        <v>6466331000000</v>
       </c>
       <c r="K23" t="n">
-        <v>1454790000000</v>
+        <v>1038214000000</v>
       </c>
       <c r="L23" t="n">
-        <v>3329136000000</v>
+        <v>2157082000000</v>
       </c>
       <c r="M23" t="n">
-        <v>7482072000000</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6466331000000</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1038214000000</v>
-      </c>
+        <v>1370944000000</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
-        <v>2157082000000</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1370944000000</v>
-      </c>
+        <v>265425000000</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1455,53 +1421,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3363900000000</v>
+        <v>3201275000000</v>
       </c>
       <c r="C30" t="n">
-        <v>3352087000000</v>
+        <v>3321069000000</v>
       </c>
       <c r="D30" t="n">
-        <v>3444235000000</v>
+        <v>3470443000000</v>
       </c>
       <c r="E30" t="n">
-        <v>3122888000000</v>
+        <v>3151500000000</v>
       </c>
       <c r="F30" t="n">
-        <v>3201275000000</v>
+        <v>3221319000000</v>
       </c>
       <c r="G30" t="n">
-        <v>3321069000000</v>
+        <v>3290088000000</v>
       </c>
       <c r="H30" t="n">
-        <v>3470443000000</v>
+        <v>3410049000000</v>
       </c>
       <c r="I30" t="n">
-        <v>3151500000000</v>
+        <v>3500567000000</v>
       </c>
       <c r="J30" t="n">
-        <v>3221319000000</v>
+        <v>3484883000000</v>
       </c>
       <c r="K30" t="n">
-        <v>3290088000000</v>
+        <v>2977388000000</v>
       </c>
       <c r="L30" t="n">
-        <v>3410049000000</v>
+        <v>3547286000000</v>
       </c>
       <c r="M30" t="n">
-        <v>3500567000000</v>
+        <v>3269660000000</v>
       </c>
       <c r="N30" t="n">
-        <v>3484883000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2977388000000</v>
-      </c>
+        <v>3287036000000</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
-        <v>3547286000000</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3269660000000</v>
-      </c>
+        <v>3530248000000</v>
+      </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1533,37 +1495,39 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3016965000000</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+        <v>2993837000000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3113631000000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3253711000000</v>
+      </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>2993837000000</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>3113631000000</v>
+        <v>3073356000000</v>
       </c>
       <c r="H32" t="n">
-        <v>3253711000000</v>
+        <v>3196780000000</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3271614000000</v>
+      </c>
       <c r="K32" t="n">
-        <v>3073356000000</v>
+        <v>2243217000000</v>
       </c>
       <c r="L32" t="n">
-        <v>3196780000000</v>
+        <v>3331005000000</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>3271614000000</v>
-      </c>
-      <c r="O32" t="n">
-        <v>2243217000000</v>
-      </c>
+        <v>3070755000000</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>3331005000000</v>
+        <v>3310217000000</v>
       </c>
       <c r="Q32" t="inlineStr"/>
     </row>
@@ -1574,37 +1538,31 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
-        <v>3016965000000</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3203573000000</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>2915450000000</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
+        <v>2934768000000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3004587000000</v>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>2934768000000</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3004587000000</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>3117098000000</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>628324000000</v>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>3117098000000</v>
+        <v>3053379000000</v>
       </c>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
-        <v>628324000000</v>
-      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>3053379000000</v>
-      </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1613,15 +1571,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>348122000000</v>
+        <v>240662000000</v>
       </c>
       <c r="C34" t="n">
-        <v>335122000000</v>
+        <v>240662000000</v>
       </c>
       <c r="D34" t="n">
         <v>240662000000</v>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>240662000000</v>
+      </c>
       <c r="F34" t="n">
         <v>240662000000</v>
       </c>
@@ -1629,35 +1589,31 @@
         <v>240662000000</v>
       </c>
       <c r="H34" t="n">
-        <v>240662000000</v>
+        <v>234462000000</v>
       </c>
       <c r="I34" t="n">
-        <v>240662000000</v>
+        <v>404662000000</v>
       </c>
       <c r="J34" t="n">
-        <v>240662000000</v>
+        <v>234462000000</v>
       </c>
       <c r="K34" t="n">
-        <v>240662000000</v>
+        <v>215076000000</v>
       </c>
       <c r="L34" t="n">
         <v>234462000000</v>
       </c>
       <c r="M34" t="n">
-        <v>404662000000</v>
+        <v>234462000000</v>
       </c>
       <c r="N34" t="n">
         <v>234462000000</v>
       </c>
-      <c r="O34" t="n">
-        <v>215076000000</v>
-      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
         <v>234462000000</v>
       </c>
-      <c r="Q34" t="n">
-        <v>234462000000</v>
-      </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1712,49 +1668,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1187000000</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+        <v>-33224000000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-33224000000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-23930000000</v>
+      </c>
       <c r="E37" t="n">
-        <v>-33224000000</v>
+        <v>-23930000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-33224000000</v>
+        <v>-23930000000</v>
       </c>
       <c r="G37" t="n">
-        <v>-33224000000</v>
+        <v>-23930000000</v>
       </c>
       <c r="H37" t="n">
-        <v>-23930000000</v>
+        <v>-21193000000</v>
       </c>
       <c r="I37" t="n">
-        <v>-23930000000</v>
+        <v>-21193000000</v>
       </c>
       <c r="J37" t="n">
-        <v>-23930000000</v>
+        <v>-21193000000</v>
       </c>
       <c r="K37" t="n">
-        <v>-23930000000</v>
+        <v>-109229000000</v>
       </c>
       <c r="L37" t="n">
-        <v>-21193000000</v>
+        <v>-18181000000</v>
       </c>
       <c r="M37" t="n">
-        <v>-21193000000</v>
+        <v>-18181000000</v>
       </c>
       <c r="N37" t="n">
-        <v>-21193000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-109229000000</v>
-      </c>
+        <v>-18181000000</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>-18181000000</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-18181000000</v>
-      </c>
+        <v>-14431000000</v>
+      </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1763,53 +1719,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10246291000000</v>
+        <v>10596961000000</v>
       </c>
       <c r="C38" t="n">
-        <v>10996975000000</v>
+        <v>10810593000000</v>
       </c>
       <c r="D38" t="n">
-        <v>11009239000000</v>
+        <v>10594037000000</v>
       </c>
       <c r="E38" t="n">
-        <v>10795062000000</v>
+        <v>10424057000000</v>
       </c>
       <c r="F38" t="n">
-        <v>10596961000000</v>
+        <v>10251153000000</v>
       </c>
       <c r="G38" t="n">
-        <v>10810593000000</v>
+        <v>10496153000000</v>
       </c>
       <c r="H38" t="n">
-        <v>10594037000000</v>
+        <v>10273641000000</v>
       </c>
       <c r="I38" t="n">
-        <v>10424057000000</v>
+        <v>10112739000000</v>
       </c>
       <c r="J38" t="n">
-        <v>10251153000000</v>
+        <v>10007629000000</v>
       </c>
       <c r="K38" t="n">
-        <v>10496153000000</v>
+        <v>10532205000000</v>
       </c>
       <c r="L38" t="n">
-        <v>10273641000000</v>
+        <v>10057208000000</v>
       </c>
       <c r="M38" t="n">
-        <v>10112739000000</v>
+        <v>9867790000000</v>
       </c>
       <c r="N38" t="n">
-        <v>10007629000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>10532205000000</v>
-      </c>
+        <v>9766512000000</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>10057208000000</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9867790000000</v>
-      </c>
+        <v>9921221000000</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1818,53 +1770,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5852656000000</v>
+        <v>6212644000000</v>
       </c>
       <c r="C39" t="n">
-        <v>6422382000000</v>
+        <v>6408904000000</v>
       </c>
       <c r="D39" t="n">
-        <v>6492772000000</v>
+        <v>6248344000000</v>
       </c>
       <c r="E39" t="n">
-        <v>6335805000000</v>
+        <v>6099543000000</v>
       </c>
       <c r="F39" t="n">
-        <v>6212644000000</v>
+        <v>5985898000000</v>
       </c>
       <c r="G39" t="n">
-        <v>6408904000000</v>
+        <v>6192823000000</v>
       </c>
       <c r="H39" t="n">
-        <v>6248344000000</v>
+        <v>6035257000000</v>
       </c>
       <c r="I39" t="n">
-        <v>6099543000000</v>
+        <v>5912813000000</v>
       </c>
       <c r="J39" t="n">
-        <v>5985898000000</v>
+        <v>5847374000000</v>
       </c>
       <c r="K39" t="n">
-        <v>6192823000000</v>
+        <v>6096042000000</v>
       </c>
       <c r="L39" t="n">
-        <v>6035257000000</v>
+        <v>5966505000000</v>
       </c>
       <c r="M39" t="n">
-        <v>5912813000000</v>
+        <v>5842698000000</v>
       </c>
       <c r="N39" t="n">
-        <v>5847374000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>6096042000000</v>
-      </c>
+        <v>5791752000000</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>5966505000000</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5842698000000</v>
-      </c>
+        <v>5961800000000</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1873,53 +1821,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14074858000000</v>
+        <v>15119660000000</v>
       </c>
       <c r="C40" t="n">
-        <v>14817602000000</v>
+        <v>15445093000000</v>
       </c>
       <c r="D40" t="n">
-        <v>15068718000000</v>
+        <v>15449924000000</v>
       </c>
       <c r="E40" t="n">
-        <v>15074957000000</v>
+        <v>15464952000000</v>
       </c>
       <c r="F40" t="n">
-        <v>15119660000000</v>
+        <v>15509235000000</v>
       </c>
       <c r="G40" t="n">
-        <v>15445093000000</v>
+        <v>15773222000000</v>
       </c>
       <c r="H40" t="n">
-        <v>15449924000000</v>
+        <v>15765498000000</v>
       </c>
       <c r="I40" t="n">
-        <v>15464952000000</v>
+        <v>15755493000000</v>
       </c>
       <c r="J40" t="n">
-        <v>15509235000000</v>
+        <v>15849325000000</v>
       </c>
       <c r="K40" t="n">
-        <v>15773222000000</v>
+        <v>14594233000000</v>
       </c>
       <c r="L40" t="n">
-        <v>15765498000000</v>
+        <v>16275148000000</v>
       </c>
       <c r="M40" t="n">
-        <v>15755493000000</v>
+        <v>16302762000000</v>
       </c>
       <c r="N40" t="n">
-        <v>15849325000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>14594233000000</v>
-      </c>
+        <v>16406747000000</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>16275148000000</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>16302762000000</v>
-      </c>
+        <v>16640340000000</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1928,53 +1872,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-8222202000000</v>
+        <v>-8907016000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-8395220000000</v>
+        <v>-9036189000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-8575946000000</v>
+        <v>-9201580000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-8739152000000</v>
+        <v>-9365409000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-8907016000000</v>
+        <v>-9523337000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-9036189000000</v>
+        <v>-9580399000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-9201580000000</v>
+        <v>-9730241000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-9365409000000</v>
+        <v>-9842680000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-9523337000000</v>
+        <v>-10001951000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-9580399000000</v>
+        <v>-8498191000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-9730241000000</v>
+        <v>-10308643000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-9842680000000</v>
+        <v>-10460064000000</v>
       </c>
       <c r="N41" t="n">
-        <v>-10001951000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-8498191000000</v>
-      </c>
+        <v>-10614995000000</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
-        <v>-10308643000000</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-10460064000000</v>
-      </c>
+        <v>-10678540000000</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2052,53 +1992,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4393635000000</v>
+        <v>4384317000000</v>
       </c>
       <c r="C45" t="n">
-        <v>4574593000000</v>
+        <v>4401689000000</v>
       </c>
       <c r="D45" t="n">
-        <v>4516467000000</v>
+        <v>4345693000000</v>
       </c>
       <c r="E45" t="n">
-        <v>4459257000000</v>
+        <v>4324514000000</v>
       </c>
       <c r="F45" t="n">
-        <v>4384317000000</v>
+        <v>4265255000000</v>
       </c>
       <c r="G45" t="n">
-        <v>4401689000000</v>
+        <v>4303330000000</v>
       </c>
       <c r="H45" t="n">
-        <v>4345693000000</v>
+        <v>4238384000000</v>
       </c>
       <c r="I45" t="n">
-        <v>4324514000000</v>
+        <v>4209926000000</v>
       </c>
       <c r="J45" t="n">
-        <v>4265255000000</v>
+        <v>4160255000000</v>
       </c>
       <c r="K45" t="n">
-        <v>4303330000000</v>
+        <v>4436163000000</v>
       </c>
       <c r="L45" t="n">
-        <v>4238384000000</v>
+        <v>4090703000000</v>
       </c>
       <c r="M45" t="n">
-        <v>4209926000000</v>
+        <v>4025092000000</v>
       </c>
       <c r="N45" t="n">
-        <v>4160255000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>4436163000000</v>
-      </c>
+        <v>3974760000000</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>4090703000000</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4025092000000</v>
-      </c>
+        <v>3959421000000</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2107,53 +2043,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6044788000000</v>
+        <v>6297884000000</v>
       </c>
       <c r="C46" t="n">
-        <v>6302326000000</v>
+        <v>6387313000000</v>
       </c>
       <c r="D46" t="n">
-        <v>6301949000000</v>
+        <v>6394313000000</v>
       </c>
       <c r="E46" t="n">
-        <v>6302749000000</v>
+        <v>6448897000000</v>
       </c>
       <c r="F46" t="n">
-        <v>6297884000000</v>
+        <v>6453937000000</v>
       </c>
       <c r="G46" t="n">
-        <v>6387313000000</v>
+        <v>6627694000000</v>
       </c>
       <c r="H46" t="n">
-        <v>6394313000000</v>
+        <v>6626472000000</v>
       </c>
       <c r="I46" t="n">
-        <v>6448897000000</v>
+        <v>6666347000000</v>
       </c>
       <c r="J46" t="n">
-        <v>6453937000000</v>
+        <v>6680891000000</v>
       </c>
       <c r="K46" t="n">
-        <v>6627694000000</v>
+        <v>6639598000000</v>
       </c>
       <c r="L46" t="n">
-        <v>6626472000000</v>
+        <v>6781147000000</v>
       </c>
       <c r="M46" t="n">
-        <v>6666347000000</v>
+        <v>6779253000000</v>
       </c>
       <c r="N46" t="n">
-        <v>6680891000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>6639598000000</v>
-      </c>
+        <v>6796800000000</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>6781147000000</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>6779253000000</v>
-      </c>
+        <v>6836186000000</v>
+      </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2162,53 +2094,49 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1651153000000</v>
+        <v>-1913567000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-1727733000000</v>
+        <v>-1985624000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-1785482000000</v>
+        <v>-2048620000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-1843492000000</v>
+        <v>-2124383000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-1913567000000</v>
+        <v>-2188682000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-1985624000000</v>
+        <v>-2324364000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-2048620000000</v>
+        <v>-2388088000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-2124383000000</v>
+        <v>-2456421000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-2188682000000</v>
+        <v>-2520636000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-2324364000000</v>
+        <v>-2203435000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-2388088000000</v>
+        <v>-2690444000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-2456421000000</v>
+        <v>-2754161000000</v>
       </c>
       <c r="N47" t="n">
-        <v>-2520636000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-2203435000000</v>
-      </c>
+        <v>-2822040000000</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>-2690444000000</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-2754161000000</v>
-      </c>
+        <v>-2876765000000</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2355,53 +2283,49 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>34617194000000</v>
+        <v>35956114000000</v>
       </c>
       <c r="C54" t="n">
-        <v>32728838000000</v>
+        <v>33729720000000</v>
       </c>
       <c r="D54" t="n">
-        <v>32767176000000</v>
+        <v>39864965000000</v>
       </c>
       <c r="E54" t="n">
-        <v>35078508000000</v>
+        <v>43694666000000</v>
       </c>
       <c r="F54" t="n">
-        <v>35956114000000</v>
+        <v>45894458000000</v>
       </c>
       <c r="G54" t="n">
-        <v>33729720000000</v>
+        <v>47355210000000</v>
       </c>
       <c r="H54" t="n">
-        <v>39864965000000</v>
+        <v>53893458000000</v>
       </c>
       <c r="I54" t="n">
-        <v>43694666000000</v>
+        <v>60373664000000</v>
       </c>
       <c r="J54" t="n">
-        <v>45894458000000</v>
+        <v>72946355000000</v>
       </c>
       <c r="K54" t="n">
-        <v>47355210000000</v>
+        <v>38300861000000</v>
       </c>
       <c r="L54" t="n">
-        <v>53893458000000</v>
+        <v>62169836000000</v>
       </c>
       <c r="M54" t="n">
-        <v>60373664000000</v>
+        <v>56253470000000</v>
       </c>
       <c r="N54" t="n">
-        <v>72946355000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>38300861000000</v>
-      </c>
+        <v>57511545000000</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
-        <v>62169836000000</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>56253470000000</v>
-      </c>
+        <v>54728245000000</v>
+      </c>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2410,53 +2334,49 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>24289662000000</v>
+        <v>25317281000000</v>
       </c>
       <c r="C55" t="n">
-        <v>22436655000000</v>
+        <v>22827271000000</v>
       </c>
       <c r="D55" t="n">
-        <v>22185142000000</v>
+        <v>37623762000000</v>
       </c>
       <c r="E55" t="n">
-        <v>24132303000000</v>
+        <v>30868082000000</v>
       </c>
       <c r="F55" t="n">
-        <v>25317281000000</v>
+        <v>32917517000000</v>
       </c>
       <c r="G55" t="n">
-        <v>22827271000000</v>
+        <v>34168564000000</v>
       </c>
       <c r="H55" t="n">
-        <v>37623762000000</v>
+        <v>39960018000000</v>
       </c>
       <c r="I55" t="n">
-        <v>30868082000000</v>
+        <v>46652927000000</v>
       </c>
       <c r="J55" t="n">
-        <v>32917517000000</v>
+        <v>57651358000000</v>
       </c>
       <c r="K55" t="n">
-        <v>34168564000000</v>
+        <v>22638187000000</v>
       </c>
       <c r="L55" t="n">
-        <v>39960018000000</v>
+        <v>45416727000000</v>
       </c>
       <c r="M55" t="n">
-        <v>46652927000000</v>
+        <v>39818158000000</v>
       </c>
       <c r="N55" t="n">
-        <v>57651358000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>22638187000000</v>
-      </c>
+        <v>41642077000000</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>45416727000000</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>39818158000000</v>
-      </c>
+        <v>36836743000000</v>
+      </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2465,53 +2385,49 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6860176000000</v>
+        <v>7435498000000</v>
       </c>
       <c r="C56" t="n">
-        <v>6664114000000</v>
+        <v>7766916000000</v>
       </c>
       <c r="D56" t="n">
-        <v>7068925000000</v>
+        <v>9122220000000</v>
       </c>
       <c r="E56" t="n">
-        <v>7485685000000</v>
+        <v>9694667000000</v>
       </c>
       <c r="F56" t="n">
-        <v>7435498000000</v>
+        <v>9551833000000</v>
       </c>
       <c r="G56" t="n">
-        <v>7766916000000</v>
+        <v>9853693000000</v>
       </c>
       <c r="H56" t="n">
-        <v>9122220000000</v>
+        <v>10645228000000</v>
       </c>
       <c r="I56" t="n">
-        <v>9694667000000</v>
+        <v>10498967000000</v>
       </c>
       <c r="J56" t="n">
-        <v>9551833000000</v>
+        <v>11982841000000</v>
       </c>
       <c r="K56" t="n">
-        <v>9853693000000</v>
+        <v>13019886000000</v>
       </c>
       <c r="L56" t="n">
-        <v>10645228000000</v>
+        <v>13543983000000</v>
       </c>
       <c r="M56" t="n">
-        <v>10498967000000</v>
+        <v>13307358000000</v>
       </c>
       <c r="N56" t="n">
-        <v>11982841000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>13019886000000</v>
-      </c>
+        <v>12780505000000</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>13543983000000</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>13307358000000</v>
-      </c>
+        <v>14509503000000</v>
+      </c>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2524,25 +2440,25 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>338000000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>344000000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>344000000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>338000000</v>
+      </c>
       <c r="K57" t="n">
-        <v>338000000</v>
-      </c>
-      <c r="L57" t="n">
-        <v>344000000</v>
-      </c>
-      <c r="M57" t="n">
-        <v>344000000</v>
-      </c>
-      <c r="N57" t="n">
-        <v>338000000</v>
-      </c>
-      <c r="O57" t="n">
         <v>35542000000</v>
       </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
     </row>
@@ -2553,51 +2469,49 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3476403000000</v>
+        <v>3237076000000</v>
       </c>
       <c r="C58" t="n">
-        <v>3639146000000</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>3208850000000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3191398000000</v>
+      </c>
       <c r="E58" t="n">
-        <v>3493274000000</v>
+        <v>3203582000000</v>
       </c>
       <c r="F58" t="n">
-        <v>3237076000000</v>
+        <v>3496783000000</v>
       </c>
       <c r="G58" t="n">
-        <v>3208850000000</v>
+        <v>3403173000000</v>
       </c>
       <c r="H58" t="n">
-        <v>3191398000000</v>
+        <v>3358387000000</v>
       </c>
       <c r="I58" t="n">
-        <v>3203582000000</v>
+        <v>3291805000000</v>
       </c>
       <c r="J58" t="n">
-        <v>3496783000000</v>
+        <v>3371091000000</v>
       </c>
       <c r="K58" t="n">
-        <v>3403173000000</v>
+        <v>3185585000000</v>
       </c>
       <c r="L58" t="n">
-        <v>3358387000000</v>
+        <v>3271550000000</v>
       </c>
       <c r="M58" t="n">
-        <v>3291805000000</v>
+        <v>3189426000000</v>
       </c>
       <c r="N58" t="n">
-        <v>3371091000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>3185585000000</v>
-      </c>
+        <v>3198694000000</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
-        <v>3271550000000</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>3189426000000</v>
-      </c>
+        <v>3489150000000</v>
+      </c>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2813,53 +2727,49 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1202209786000000</v>
+        <v>1261204481000000</v>
       </c>
       <c r="C68" t="n">
-        <v>1240789413000000</v>
+        <v>1341392922000000</v>
       </c>
       <c r="D68" t="n">
-        <v>1222651543000000</v>
+        <v>1343984509000000</v>
       </c>
       <c r="E68" t="n">
-        <v>1239556783000000</v>
+        <v>1473022358000000</v>
       </c>
       <c r="F68" t="n">
-        <v>1261204481000000</v>
+        <v>1447809011000000</v>
       </c>
       <c r="G68" t="n">
-        <v>1341392922000000</v>
+        <v>1531468324000000</v>
       </c>
       <c r="H68" t="n">
-        <v>1343984509000000</v>
+        <v>1663730167000000</v>
       </c>
       <c r="I68" t="n">
-        <v>1473022358000000</v>
+        <v>1691061895000000</v>
       </c>
       <c r="J68" t="n">
-        <v>1447809011000000</v>
+        <v>1750789603000000</v>
       </c>
       <c r="K68" t="n">
-        <v>1531468324000000</v>
+        <v>2120527692000000</v>
       </c>
       <c r="L68" t="n">
-        <v>1663730167000000</v>
+        <v>1823962183000000</v>
       </c>
       <c r="M68" t="n">
-        <v>1691061895000000</v>
+        <v>1860104522000000</v>
       </c>
       <c r="N68" t="n">
-        <v>1750789603000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>2120527692000000</v>
-      </c>
+        <v>1888338295000000</v>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>1823962183000000</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1860104522000000</v>
-      </c>
+        <v>2077615056000000</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2868,53 +2778,49 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>73504342000000</v>
+        <v>14715033000000</v>
       </c>
       <c r="C69" t="n">
-        <v>70602893000000</v>
+        <v>44597188000000</v>
       </c>
       <c r="D69" t="n">
-        <v>64983557000000</v>
+        <v>33117292000000</v>
       </c>
       <c r="E69" t="n">
-        <v>44380201000000</v>
+        <v>79885745000000</v>
       </c>
       <c r="F69" t="n">
-        <v>14715033000000</v>
+        <v>17290591000000</v>
       </c>
       <c r="G69" t="n">
-        <v>44597188000000</v>
+        <v>33294404000000</v>
       </c>
       <c r="H69" t="n">
-        <v>33117292000000</v>
+        <v>51244665000000</v>
       </c>
       <c r="I69" t="n">
-        <v>79885745000000</v>
+        <v>59478812000000</v>
       </c>
       <c r="J69" t="n">
-        <v>17290591000000</v>
+        <v>98639999000000</v>
       </c>
       <c r="K69" t="n">
-        <v>33294404000000</v>
+        <v>152752718000000</v>
       </c>
       <c r="L69" t="n">
-        <v>51244665000000</v>
+        <v>100058595000000</v>
       </c>
       <c r="M69" t="n">
-        <v>59478812000000</v>
+        <v>5438198000000</v>
       </c>
       <c r="N69" t="n">
-        <v>98639999000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>152752718000000</v>
-      </c>
+        <v>21577020000000</v>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>100058595000000</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>5438198000000</v>
-      </c>
+        <v>46137063000000</v>
+      </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3130,53 +3036,49 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>93380834000000</v>
+        <v>125879374000000</v>
       </c>
       <c r="C79" t="n">
-        <v>26945019000000</v>
+        <v>128519115000000</v>
       </c>
       <c r="D79" t="n">
-        <v>91560433000000</v>
+        <v>123597851000000</v>
       </c>
       <c r="E79" t="n">
-        <v>113721935000000</v>
+        <v>164527010000000</v>
       </c>
       <c r="F79" t="n">
-        <v>125879374000000</v>
+        <v>160353349000000</v>
       </c>
       <c r="G79" t="n">
-        <v>128519115000000</v>
+        <v>138833846000000</v>
       </c>
       <c r="H79" t="n">
-        <v>123597851000000</v>
+        <v>194897542000000</v>
       </c>
       <c r="I79" t="n">
-        <v>164527010000000</v>
+        <v>217176920000000</v>
       </c>
       <c r="J79" t="n">
-        <v>160353349000000</v>
+        <v>232869143000000</v>
       </c>
       <c r="K79" t="n">
-        <v>138833846000000</v>
+        <v>178797484000000</v>
       </c>
       <c r="L79" t="n">
-        <v>194897542000000</v>
+        <v>177278728000000</v>
       </c>
       <c r="M79" t="n">
-        <v>217176920000000</v>
+        <v>263937809000000</v>
       </c>
       <c r="N79" t="n">
-        <v>232869143000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>178797484000000</v>
-      </c>
+        <v>288612623000000</v>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
-        <v>177278728000000</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>263937809000000</v>
-      </c>
+        <v>325515909000000</v>
+      </c>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3185,51 +3087,49 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>66742106000000</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>107337297000000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>98537440000000</v>
+      </c>
       <c r="D80" t="n">
-        <v>72272867000000</v>
+        <v>75671938000000</v>
       </c>
       <c r="E80" t="n">
-        <v>96725027000000</v>
+        <v>107936912000000</v>
       </c>
       <c r="F80" t="n">
-        <v>107337297000000</v>
+        <v>51657213000000</v>
       </c>
       <c r="G80" t="n">
-        <v>98537440000000</v>
+        <v>33670804000000</v>
       </c>
       <c r="H80" t="n">
-        <v>75671938000000</v>
+        <v>88860218000000</v>
       </c>
       <c r="I80" t="n">
-        <v>107936912000000</v>
+        <v>95578340000000</v>
       </c>
       <c r="J80" t="n">
-        <v>51657213000000</v>
+        <v>135559354000000</v>
       </c>
       <c r="K80" t="n">
-        <v>33670804000000</v>
+        <v>138312183000000</v>
       </c>
       <c r="L80" t="n">
-        <v>88860218000000</v>
+        <v>122250948000000</v>
       </c>
       <c r="M80" t="n">
-        <v>95578340000000</v>
+        <v>218049015000000</v>
       </c>
       <c r="N80" t="n">
-        <v>135559354000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>138312183000000</v>
-      </c>
+        <v>247168976000000</v>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>122250948000000</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>218049015000000</v>
-      </c>
+        <v>284967322000000</v>
+      </c>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3238,51 +3138,49 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>26638728000000</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>18542077000000</v>
+      </c>
+      <c r="C81" t="n">
+        <v>29981674000000</v>
+      </c>
       <c r="D81" t="n">
-        <v>19287566000000</v>
+        <v>47925913000000</v>
       </c>
       <c r="E81" t="n">
-        <v>16996908000000</v>
+        <v>56590098000000</v>
       </c>
       <c r="F81" t="n">
-        <v>18542077000000</v>
+        <v>108696036000000</v>
       </c>
       <c r="G81" t="n">
-        <v>29981674000000</v>
+        <v>105163042000000</v>
       </c>
       <c r="H81" t="n">
-        <v>47925913000000</v>
+        <v>106037324000000</v>
       </c>
       <c r="I81" t="n">
-        <v>56590098000000</v>
+        <v>121598580000000</v>
       </c>
       <c r="J81" t="n">
-        <v>108696036000000</v>
+        <v>97309789000000</v>
       </c>
       <c r="K81" t="n">
-        <v>105163042000000</v>
+        <v>40485301000000</v>
       </c>
       <c r="L81" t="n">
-        <v>106037324000000</v>
+        <v>55027780000000</v>
       </c>
       <c r="M81" t="n">
-        <v>121598580000000</v>
+        <v>45888794000000</v>
       </c>
       <c r="N81" t="n">
-        <v>97309789000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>40485301000000</v>
-      </c>
+        <v>247168976000000</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>55027780000000</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>45888794000000</v>
-      </c>
+        <v>40548587000000</v>
+      </c>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3337,53 +3235,49 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>865466194000000</v>
+        <v>939175387000000</v>
       </c>
       <c r="C84" t="n">
-        <v>892782111000000</v>
+        <v>990331385000000</v>
       </c>
       <c r="D84" t="n">
-        <v>895750503000000</v>
+        <v>1003700363000000</v>
       </c>
       <c r="E84" t="n">
-        <v>913319796000000</v>
+        <v>1039519813000000</v>
       </c>
       <c r="F84" t="n">
-        <v>939175387000000</v>
+        <v>1072892689000000</v>
       </c>
       <c r="G84" t="n">
-        <v>990331385000000</v>
+        <v>1161796827000000</v>
       </c>
       <c r="H84" t="n">
-        <v>1003700363000000</v>
+        <v>1212678007000000</v>
       </c>
       <c r="I84" t="n">
-        <v>1039519813000000</v>
+        <v>1205567462000000</v>
       </c>
       <c r="J84" t="n">
-        <v>1072892689000000</v>
+        <v>1189722937000000</v>
       </c>
       <c r="K84" t="n">
-        <v>1161796827000000</v>
+        <v>1473604981000000</v>
       </c>
       <c r="L84" t="n">
-        <v>1212678007000000</v>
+        <v>1272350383000000</v>
       </c>
       <c r="M84" t="n">
-        <v>1205567462000000</v>
+        <v>1310048451000000</v>
       </c>
       <c r="N84" t="n">
-        <v>1189722937000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>1473604981000000</v>
-      </c>
+        <v>1310323594000000</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>1272350383000000</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1310048451000000</v>
-      </c>
+        <v>1427664878000000</v>
+      </c>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3600,9 +3494,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="n">
-        <v>150870000000</v>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -3612,7 +3504,9 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>50406000000</v>
+      </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -3693,51 +3587,47 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1127331143000000</v>
+        <v>1177882018000000</v>
       </c>
       <c r="C98" t="n">
-        <v>1163433833000000</v>
+        <v>1255997908000000</v>
       </c>
       <c r="D98" t="n">
-        <v>1143840309000000</v>
+        <v>1252147404000000</v>
       </c>
       <c r="E98" t="n">
-        <v>1158537342000000</v>
+        <v>1379832802000000</v>
       </c>
       <c r="F98" t="n">
-        <v>1177882018000000</v>
+        <v>95601232000000</v>
       </c>
       <c r="G98" t="n">
-        <v>1255997908000000</v>
+        <v>1437815206000000</v>
       </c>
       <c r="H98" t="n">
-        <v>1252147404000000</v>
+        <v>1565433744000000</v>
       </c>
       <c r="I98" t="n">
-        <v>1379832802000000</v>
+        <v>1588279814000000</v>
       </c>
       <c r="J98" t="n">
-        <v>95601232000000</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1437815206000000</v>
-      </c>
+        <v>1644680947000000</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>1565433744000000</v>
+        <v>1711017010000000</v>
       </c>
       <c r="M98" t="n">
-        <v>1588279814000000</v>
+        <v>1742044149000000</v>
       </c>
       <c r="N98" t="n">
-        <v>1644680947000000</v>
+        <v>1766333172000000</v>
       </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>1711017010000000</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>1742044149000000</v>
-      </c>
+        <v>1947032568000000</v>
+      </c>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3759,7 +3649,9 @@
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+      <c r="P99" t="n">
+        <v>63510626000000</v>
+      </c>
       <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3781,22 +3673,22 @@
         <v>37234046000000</v>
       </c>
       <c r="F100" t="n">
-        <v>37234046000000</v>
+        <v>48057506000000</v>
       </c>
       <c r="G100" t="n">
-        <v>37234046000000</v>
+        <v>48057506000000</v>
       </c>
       <c r="H100" t="n">
-        <v>37234046000000</v>
+        <v>48057506000000</v>
       </c>
       <c r="I100" t="n">
-        <v>37234046000000</v>
+        <v>48057506000000</v>
       </c>
       <c r="J100" t="n">
         <v>48057506000000</v>
       </c>
       <c r="K100" t="n">
-        <v>48057506000000</v>
+        <v>50585239000000</v>
       </c>
       <c r="L100" t="n">
         <v>48057506000000</v>
@@ -3807,15 +3699,11 @@
       <c r="N100" t="n">
         <v>48057506000000</v>
       </c>
-      <c r="O100" t="n">
-        <v>50585239000000</v>
-      </c>
+      <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>48057506000000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>48057506000000</v>
-      </c>
+        <v>53699917000000</v>
+      </c>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3896,13 +3784,13 @@
         <v>8974698000000</v>
       </c>
       <c r="C104" t="n">
-        <v>8974683000000</v>
+        <v>8974698000000</v>
       </c>
       <c r="D104" t="n">
-        <v>8974683000000</v>
+        <v>8974694000000</v>
       </c>
       <c r="E104" t="n">
-        <v>8974683000000</v>
+        <v>8974698000000</v>
       </c>
       <c r="F104" t="n">
         <v>8974698000000</v>
@@ -3911,35 +3799,31 @@
         <v>8974698000000</v>
       </c>
       <c r="H104" t="n">
-        <v>8974694000000</v>
+        <v>8974698000000</v>
       </c>
       <c r="I104" t="n">
-        <v>8974698000000</v>
+        <v>8974688000000</v>
       </c>
       <c r="J104" t="n">
-        <v>8974698000000</v>
+        <v>8974674000000</v>
       </c>
       <c r="K104" t="n">
-        <v>8974698000000</v>
+        <v>15351407000000</v>
       </c>
       <c r="L104" t="n">
-        <v>8974698000000</v>
+        <v>8974677000000</v>
       </c>
       <c r="M104" t="n">
-        <v>8974688000000</v>
+        <v>8974677000000</v>
       </c>
       <c r="N104" t="n">
-        <v>8974674000000</v>
-      </c>
-      <c r="O104" t="n">
-        <v>15351407000000</v>
-      </c>
+        <v>8974677000000</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
         <v>8974677000000</v>
       </c>
-      <c r="Q104" t="n">
-        <v>8974677000000</v>
-      </c>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3994,10 +3878,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>515893000000</v>
+        <v>515908000000</v>
       </c>
       <c r="C107" t="n">
-        <v>515453000000</v>
+        <v>515908000000</v>
       </c>
       <c r="D107" t="n">
         <v>515908000000</v>
@@ -4015,32 +3899,28 @@
         <v>515908000000</v>
       </c>
       <c r="I107" t="n">
-        <v>515908000000</v>
+        <v>580298000000</v>
       </c>
       <c r="J107" t="n">
-        <v>515908000000</v>
+        <v>580298000000</v>
       </c>
       <c r="K107" t="n">
-        <v>515908000000</v>
+        <v>267851000000</v>
       </c>
       <c r="L107" t="n">
-        <v>515908000000</v>
+        <v>836032000000</v>
       </c>
       <c r="M107" t="n">
-        <v>580298000000</v>
+        <v>836032000000</v>
       </c>
       <c r="N107" t="n">
-        <v>580298000000</v>
-      </c>
-      <c r="O107" t="n">
-        <v>267851000000</v>
-      </c>
+        <v>836032000000</v>
+      </c>
+      <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
         <v>836032000000</v>
       </c>
-      <c r="Q107" t="n">
-        <v>836032000000</v>
-      </c>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4118,53 +3998,49 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>8178233000000</v>
+        <v>9606249000000</v>
       </c>
       <c r="C111" t="n">
-        <v>9606080000000</v>
+        <v>11605298000000</v>
       </c>
       <c r="D111" t="n">
-        <v>9605683000000</v>
+        <v>11605409000000</v>
       </c>
       <c r="E111" t="n">
-        <v>9607617000000</v>
+        <v>11616766000000</v>
       </c>
       <c r="F111" t="n">
-        <v>9606249000000</v>
+        <v>11612828000000</v>
       </c>
       <c r="G111" t="n">
-        <v>11605298000000</v>
+        <v>13667287000000</v>
       </c>
       <c r="H111" t="n">
-        <v>11605409000000</v>
+        <v>13672052000000</v>
       </c>
       <c r="I111" t="n">
-        <v>11616766000000</v>
+        <v>12658594000000</v>
       </c>
       <c r="J111" t="n">
-        <v>11612828000000</v>
+        <v>13657091000000</v>
       </c>
       <c r="K111" t="n">
-        <v>13667287000000</v>
+        <v>9730169000000</v>
       </c>
       <c r="L111" t="n">
-        <v>13672052000000</v>
+        <v>16075417000000</v>
       </c>
       <c r="M111" t="n">
-        <v>12658594000000</v>
+        <v>16085751000000</v>
       </c>
       <c r="N111" t="n">
-        <v>13657091000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>9730169000000</v>
-      </c>
+        <v>16089954000000</v>
+      </c>
+      <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
-        <v>16075417000000</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>16085751000000</v>
-      </c>
+        <v>19048471000000</v>
+      </c>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4288,51 +4164,49 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>662436000000</v>
+        <v>527374000000</v>
       </c>
       <c r="C117" t="n">
-        <v>625493000000</v>
-      </c>
-      <c r="D117" t="inlineStr"/>
+        <v>481781000000</v>
+      </c>
+      <c r="D117" t="n">
+        <v>466292000000</v>
+      </c>
       <c r="E117" t="n">
-        <v>543560000000</v>
+        <v>505992000000</v>
       </c>
       <c r="F117" t="n">
-        <v>527374000000</v>
+        <v>423291000000</v>
       </c>
       <c r="G117" t="n">
-        <v>481781000000</v>
+        <v>248642000000</v>
       </c>
       <c r="H117" t="n">
-        <v>466292000000</v>
+        <v>226294000000</v>
       </c>
       <c r="I117" t="n">
-        <v>505992000000</v>
+        <v>115464000000</v>
       </c>
       <c r="J117" t="n">
-        <v>423291000000</v>
+        <v>154445000000</v>
       </c>
       <c r="K117" t="n">
-        <v>248642000000</v>
+        <v>-770027000000</v>
       </c>
       <c r="L117" t="n">
-        <v>226294000000</v>
+        <v>75353000000</v>
       </c>
       <c r="M117" t="n">
-        <v>115464000000</v>
+        <v>6860000000</v>
       </c>
       <c r="N117" t="n">
-        <v>154445000000</v>
-      </c>
-      <c r="O117" t="n">
-        <v>-770027000000</v>
-      </c>
+        <v>61591000000</v>
+      </c>
+      <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
-        <v>75353000000</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>6860000000</v>
-      </c>
+        <v>125322000000</v>
+      </c>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
